--- a/CitedByCounts/ScopusCitedByDummy.xlsx
+++ b/CitedByCounts/ScopusCitedByDummy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5740" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Dummy Cnt</t>
   </si>
@@ -62,6 +62,15 @@
   <si>
     <t>Inputs</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +109,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,7 +134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -166,13 +182,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -196,6 +218,8 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -219,6 +243,8 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +577,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115:F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3314,23 +3340,23 @@
         <v>41640</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58:B88" si="5">L58</f>
+        <f t="shared" ref="B58:B112" si="5">L58</f>
         <v>113030193</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:C88" si="6">M58</f>
+        <f t="shared" ref="C58:C112" si="6">M58</f>
         <v>19127</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:D88" si="7">I58</f>
+        <f t="shared" ref="D58:D112" si="7">I58</f>
         <v>14823</v>
       </c>
       <c r="E58">
-        <f t="shared" ref="E58:E88" si="8">N58-M58</f>
+        <f t="shared" ref="E58:E112" si="8">N58-M58</f>
         <v>3365</v>
       </c>
       <c r="F58">
-        <f t="shared" ref="F58:F88" si="9">O58-M58</f>
+        <f t="shared" ref="F58:F112" si="9">O58-M58</f>
         <v>3511</v>
       </c>
       <c r="H58">
@@ -3931,7 +3957,7 @@
         <v>1115</v>
       </c>
       <c r="K70">
-        <v>113370284</v>
+        <v>4951</v>
       </c>
       <c r="L70">
         <v>113371692</v>
@@ -4099,23 +4125,47 @@
       </c>
       <c r="B74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113520451</v>
       </c>
       <c r="C74">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20441</v>
       </c>
       <c r="D74">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2496</v>
       </c>
       <c r="E74">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F74">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>71840</v>
+      </c>
+      <c r="H74">
+        <v>113502506</v>
+      </c>
+      <c r="I74">
+        <v>2496</v>
+      </c>
+      <c r="J74">
+        <v>2535</v>
+      </c>
+      <c r="K74">
+        <v>74336</v>
+      </c>
+      <c r="L74">
+        <v>113520451</v>
+      </c>
+      <c r="M74">
+        <v>20441</v>
+      </c>
+      <c r="N74">
+        <v>20480</v>
+      </c>
+      <c r="O74">
+        <v>92281</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4124,23 +4174,47 @@
       </c>
       <c r="B75">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113499788</v>
       </c>
       <c r="C75">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D75">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20760</v>
       </c>
       <c r="E75">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4814</v>
       </c>
       <c r="F75">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>287582</v>
+      </c>
+      <c r="H75">
+        <v>113520451</v>
+      </c>
+      <c r="I75">
+        <v>20760</v>
+      </c>
+      <c r="J75">
+        <v>25574</v>
+      </c>
+      <c r="K75">
+        <v>308342</v>
+      </c>
+      <c r="L75">
+        <v>113499788</v>
+      </c>
+      <c r="M75">
+        <v>97</v>
+      </c>
+      <c r="N75">
+        <v>4911</v>
+      </c>
+      <c r="O75">
+        <v>287679</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4149,23 +4223,47 @@
       </c>
       <c r="B76">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113536899</v>
       </c>
       <c r="C76">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>38067</v>
       </c>
       <c r="D76">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="E76">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9635</v>
       </c>
       <c r="F76">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>255285</v>
+      </c>
+      <c r="H76">
+        <v>113499788</v>
+      </c>
+      <c r="I76">
+        <v>956</v>
+      </c>
+      <c r="J76">
+        <v>10591</v>
+      </c>
+      <c r="K76">
+        <v>256241</v>
+      </c>
+      <c r="L76">
+        <v>113536899</v>
+      </c>
+      <c r="M76">
+        <v>38067</v>
+      </c>
+      <c r="N76">
+        <v>47702</v>
+      </c>
+      <c r="O76">
+        <v>293352</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4174,15 +4272,15 @@
       </c>
       <c r="B77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113547687</v>
       </c>
       <c r="C77">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15269</v>
       </c>
       <c r="D77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4481</v>
       </c>
       <c r="E77">
         <f t="shared" si="8"/>
@@ -4190,7 +4288,31 @@
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16692</v>
+      </c>
+      <c r="H77">
+        <v>113536899</v>
+      </c>
+      <c r="I77">
+        <v>4481</v>
+      </c>
+      <c r="J77">
+        <v>4481</v>
+      </c>
+      <c r="K77">
+        <v>21173</v>
+      </c>
+      <c r="L77">
+        <v>113547687</v>
+      </c>
+      <c r="M77">
+        <v>15269</v>
+      </c>
+      <c r="N77">
+        <v>15269</v>
+      </c>
+      <c r="O77">
+        <v>31961</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4199,23 +4321,47 @@
       </c>
       <c r="B78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113552172</v>
       </c>
       <c r="C78">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6066</v>
       </c>
       <c r="D78">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="E78">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5550</v>
       </c>
       <c r="F78">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>16521</v>
+      </c>
+      <c r="H78">
+        <v>113547687</v>
+      </c>
+      <c r="I78">
+        <v>1581</v>
+      </c>
+      <c r="J78">
+        <v>7131</v>
+      </c>
+      <c r="K78">
+        <v>18102</v>
+      </c>
+      <c r="L78">
+        <v>113552172</v>
+      </c>
+      <c r="M78">
+        <v>6066</v>
+      </c>
+      <c r="N78">
+        <v>11616</v>
+      </c>
+      <c r="O78">
+        <v>22587</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4224,23 +4370,47 @@
       </c>
       <c r="B79">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113590783</v>
       </c>
       <c r="C79">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>42332</v>
       </c>
       <c r="D79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3721</v>
       </c>
       <c r="E79">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7128</v>
       </c>
       <c r="F79">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>43987</v>
+      </c>
+      <c r="H79">
+        <v>113552172</v>
+      </c>
+      <c r="I79">
+        <v>3721</v>
+      </c>
+      <c r="J79">
+        <v>10849</v>
+      </c>
+      <c r="K79">
+        <v>47708</v>
+      </c>
+      <c r="L79">
+        <v>113590783</v>
+      </c>
+      <c r="M79">
+        <v>42332</v>
+      </c>
+      <c r="N79">
+        <v>49460</v>
+      </c>
+      <c r="O79">
+        <v>86319</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4249,182 +4419,350 @@
       </c>
       <c r="B80">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113599759</v>
       </c>
       <c r="C80">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10195</v>
       </c>
       <c r="D80">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1219</v>
       </c>
       <c r="E80">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4772</v>
       </c>
       <c r="F80">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>11542</v>
+      </c>
+      <c r="H80">
+        <v>113590783</v>
+      </c>
+      <c r="I80">
+        <v>1219</v>
+      </c>
+      <c r="J80">
+        <v>5991</v>
+      </c>
+      <c r="K80">
+        <v>12761</v>
+      </c>
+      <c r="L80">
+        <v>113599759</v>
+      </c>
+      <c r="M80">
+        <v>10195</v>
+      </c>
+      <c r="N80">
+        <v>14967</v>
+      </c>
+      <c r="O80">
+        <v>21737</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" s="2">
         <v>41663</v>
       </c>
       <c r="B81">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113604623</v>
       </c>
       <c r="C81">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12737</v>
       </c>
       <c r="D81">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7873</v>
       </c>
       <c r="E81">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2947</v>
       </c>
       <c r="F81">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>16505</v>
+      </c>
+      <c r="H81">
+        <v>113599759</v>
+      </c>
+      <c r="I81">
+        <v>7873</v>
+      </c>
+      <c r="J81">
+        <v>10820</v>
+      </c>
+      <c r="K81">
+        <v>24378</v>
+      </c>
+      <c r="L81">
+        <v>113604623</v>
+      </c>
+      <c r="M81">
+        <v>12737</v>
+      </c>
+      <c r="N81">
+        <v>15684</v>
+      </c>
+      <c r="O81">
+        <v>29242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" s="2">
         <v>41664</v>
       </c>
       <c r="B82">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113659620</v>
       </c>
       <c r="C82">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>64813</v>
       </c>
       <c r="D82">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9816</v>
       </c>
       <c r="E82">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9865</v>
       </c>
       <c r="F82">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>75977</v>
+      </c>
+      <c r="H82">
+        <v>113604623</v>
+      </c>
+      <c r="I82">
+        <v>9816</v>
+      </c>
+      <c r="J82">
+        <v>19681</v>
+      </c>
+      <c r="K82">
+        <v>85793</v>
+      </c>
+      <c r="L82">
+        <v>113659620</v>
+      </c>
+      <c r="M82">
+        <v>64813</v>
+      </c>
+      <c r="N82">
+        <v>74678</v>
+      </c>
+      <c r="O82">
+        <v>140790</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" s="2">
         <v>41665</v>
       </c>
       <c r="B83">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113700532</v>
       </c>
       <c r="C83">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>47597</v>
       </c>
       <c r="D83">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6685</v>
       </c>
       <c r="E83">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13997</v>
       </c>
       <c r="F83">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>62181</v>
+      </c>
+      <c r="H83">
+        <v>113659620</v>
+      </c>
+      <c r="I83">
+        <v>6685</v>
+      </c>
+      <c r="J83">
+        <v>20682</v>
+      </c>
+      <c r="K83">
+        <v>68866</v>
+      </c>
+      <c r="L83">
+        <v>113700532</v>
+      </c>
+      <c r="M83">
+        <v>47597</v>
+      </c>
+      <c r="N83">
+        <v>61594</v>
+      </c>
+      <c r="O83">
+        <v>109778</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" s="2">
         <v>41666</v>
       </c>
       <c r="B84">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113698813</v>
       </c>
       <c r="C84">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2555</v>
       </c>
       <c r="D84">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4274</v>
       </c>
       <c r="E84">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="F84">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>3514</v>
+      </c>
+      <c r="H84">
+        <v>113700532</v>
+      </c>
+      <c r="I84">
+        <v>4274</v>
+      </c>
+      <c r="J84">
+        <v>5513</v>
+      </c>
+      <c r="K84">
+        <v>7788</v>
+      </c>
+      <c r="L84">
+        <v>113698813</v>
+      </c>
+      <c r="M84">
+        <v>2555</v>
+      </c>
+      <c r="N84">
+        <v>3794</v>
+      </c>
+      <c r="O84">
+        <v>6069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" s="2">
         <v>41667</v>
       </c>
       <c r="B85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113744319</v>
       </c>
       <c r="C85">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45860</v>
       </c>
       <c r="D85">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="E85">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9192</v>
       </c>
       <c r="F85">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>48440</v>
+      </c>
+      <c r="H85">
+        <v>113698813</v>
+      </c>
+      <c r="I85">
+        <v>354</v>
+      </c>
+      <c r="J85">
+        <v>9546</v>
+      </c>
+      <c r="K85">
+        <v>48794</v>
+      </c>
+      <c r="L85">
+        <v>113744319</v>
+      </c>
+      <c r="M85">
+        <v>45860</v>
+      </c>
+      <c r="N85">
+        <v>55052</v>
+      </c>
+      <c r="O85">
+        <v>94300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" s="2">
         <v>41668</v>
       </c>
       <c r="B86">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113896933</v>
       </c>
       <c r="C86">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>159089</v>
       </c>
       <c r="D86">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6475</v>
       </c>
       <c r="E86">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>32610</v>
       </c>
       <c r="F86">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>185512</v>
+      </c>
+      <c r="H86">
+        <v>113744319</v>
+      </c>
+      <c r="I86">
+        <v>6475</v>
+      </c>
+      <c r="J86">
+        <v>39085</v>
+      </c>
+      <c r="K86">
+        <v>191987</v>
+      </c>
+      <c r="L86">
+        <v>113896933</v>
+      </c>
+      <c r="M86">
+        <v>159089</v>
+      </c>
+      <c r="N86">
+        <v>191699</v>
+      </c>
+      <c r="O86">
+        <v>344601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" s="2">
         <v>41669</v>
       </c>
       <c r="B87">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113891407</v>
       </c>
       <c r="C87">
         <f t="shared" si="6"/>
@@ -4432,7 +4770,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5526</v>
       </c>
       <c r="E87">
         <f t="shared" si="8"/>
@@ -4440,20 +4778,44 @@
       </c>
       <c r="F87">
         <f t="shared" si="9"/>
+        <v>222</v>
+      </c>
+      <c r="H87">
+        <v>113896933</v>
+      </c>
+      <c r="I87">
+        <v>5526</v>
+      </c>
+      <c r="J87">
+        <v>5526</v>
+      </c>
+      <c r="K87">
+        <v>5748</v>
+      </c>
+      <c r="L87">
+        <v>113891407</v>
+      </c>
+      <c r="M87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" s="2">
         <v>41670</v>
       </c>
       <c r="B88">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>113929868</v>
       </c>
       <c r="C88">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>38461</v>
       </c>
       <c r="D88">
         <f t="shared" si="7"/>
@@ -4461,11 +4823,1277 @@
       </c>
       <c r="E88">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7306</v>
       </c>
       <c r="F88">
         <f t="shared" si="9"/>
+        <v>185</v>
+      </c>
+      <c r="H88">
+        <v>113891407</v>
+      </c>
+      <c r="I88">
         <v>0</v>
+      </c>
+      <c r="J88">
+        <v>7306</v>
+      </c>
+      <c r="K88">
+        <v>185</v>
+      </c>
+      <c r="L88">
+        <v>113929868</v>
+      </c>
+      <c r="M88">
+        <v>38461</v>
+      </c>
+      <c r="N88">
+        <v>45767</v>
+      </c>
+      <c r="O88">
+        <v>38646</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>113928171</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="7"/>
+        <v>1697</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="9"/>
+        <v>78020</v>
+      </c>
+      <c r="H89">
+        <v>113929868</v>
+      </c>
+      <c r="I89">
+        <v>1697</v>
+      </c>
+      <c r="J89">
+        <v>1697</v>
+      </c>
+      <c r="K89">
+        <v>79717</v>
+      </c>
+      <c r="L89">
+        <v>113928171</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>78020</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="2">
+        <v>41672</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>114092352</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>168334</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="7"/>
+        <v>4153</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="8"/>
+        <v>34978</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="9"/>
+        <v>221498</v>
+      </c>
+      <c r="H90">
+        <v>113928171</v>
+      </c>
+      <c r="I90">
+        <v>4153</v>
+      </c>
+      <c r="J90">
+        <v>39131</v>
+      </c>
+      <c r="K90">
+        <v>225651</v>
+      </c>
+      <c r="L90">
+        <v>114092352</v>
+      </c>
+      <c r="M90">
+        <v>168334</v>
+      </c>
+      <c r="N90">
+        <v>203312</v>
+      </c>
+      <c r="O90">
+        <v>389832</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="2">
+        <v>41673</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>114139162</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>55296</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="7"/>
+        <v>8486</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="8"/>
+        <v>11968</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="9"/>
+        <v>51980</v>
+      </c>
+      <c r="H91">
+        <v>114092352</v>
+      </c>
+      <c r="I91">
+        <v>8486</v>
+      </c>
+      <c r="J91">
+        <v>20454</v>
+      </c>
+      <c r="K91">
+        <v>60466</v>
+      </c>
+      <c r="L91">
+        <v>114139162</v>
+      </c>
+      <c r="M91">
+        <v>55296</v>
+      </c>
+      <c r="N91">
+        <v>67264</v>
+      </c>
+      <c r="O91">
+        <v>107276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="2">
+        <v>41674</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>114157201</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>24416</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="7"/>
+        <v>6377</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="8"/>
+        <v>5380</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="9"/>
+        <v>49618</v>
+      </c>
+      <c r="H92">
+        <v>114139162</v>
+      </c>
+      <c r="I92">
+        <v>6377</v>
+      </c>
+      <c r="J92">
+        <v>11757</v>
+      </c>
+      <c r="K92">
+        <v>55995</v>
+      </c>
+      <c r="L92">
+        <v>114157201</v>
+      </c>
+      <c r="M92">
+        <v>24416</v>
+      </c>
+      <c r="N92">
+        <v>29796</v>
+      </c>
+      <c r="O92">
+        <v>74034</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>114160540</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>7455</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="7"/>
+        <v>4116</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="8"/>
+        <v>1598</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="9"/>
+        <v>18741</v>
+      </c>
+      <c r="H93">
+        <v>114157201</v>
+      </c>
+      <c r="I93">
+        <v>4116</v>
+      </c>
+      <c r="J93">
+        <v>5714</v>
+      </c>
+      <c r="K93">
+        <v>22857</v>
+      </c>
+      <c r="L93">
+        <v>114160540</v>
+      </c>
+      <c r="M93">
+        <v>7455</v>
+      </c>
+      <c r="N93">
+        <v>9053</v>
+      </c>
+      <c r="O93">
+        <v>26196</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>114219895</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>60217</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="7"/>
+        <v>862</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="8"/>
+        <v>11312</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="9"/>
+        <v>66836</v>
+      </c>
+      <c r="H94">
+        <v>114160540</v>
+      </c>
+      <c r="I94">
+        <v>862</v>
+      </c>
+      <c r="J94">
+        <v>12174</v>
+      </c>
+      <c r="K94">
+        <v>67698</v>
+      </c>
+      <c r="L94">
+        <v>114219895</v>
+      </c>
+      <c r="M94">
+        <v>60217</v>
+      </c>
+      <c r="N94">
+        <v>71529</v>
+      </c>
+      <c r="O94">
+        <v>127053</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>114270049</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>54374</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="7"/>
+        <v>4220</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="8"/>
+        <v>11534</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="9"/>
+        <v>60341</v>
+      </c>
+      <c r="H95">
+        <v>114219895</v>
+      </c>
+      <c r="I95">
+        <v>4220</v>
+      </c>
+      <c r="J95">
+        <v>15754</v>
+      </c>
+      <c r="K95">
+        <v>64561</v>
+      </c>
+      <c r="L95">
+        <v>114270049</v>
+      </c>
+      <c r="M95">
+        <v>54374</v>
+      </c>
+      <c r="N95">
+        <v>65908</v>
+      </c>
+      <c r="O95">
+        <v>114715</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>114303664</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>40905</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="7"/>
+        <v>7290</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="8"/>
+        <v>10922</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="9"/>
+        <v>42878</v>
+      </c>
+      <c r="H96">
+        <v>114270049</v>
+      </c>
+      <c r="I96">
+        <v>7290</v>
+      </c>
+      <c r="J96">
+        <v>18212</v>
+      </c>
+      <c r="K96">
+        <v>50168</v>
+      </c>
+      <c r="L96">
+        <v>114303664</v>
+      </c>
+      <c r="M96">
+        <v>40905</v>
+      </c>
+      <c r="N96">
+        <v>51827</v>
+      </c>
+      <c r="O96">
+        <v>83783</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>114369811</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>74098</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="7"/>
+        <v>7951</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="8"/>
+        <v>12599</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="9"/>
+        <v>83212</v>
+      </c>
+      <c r="H97">
+        <v>114303664</v>
+      </c>
+      <c r="I97">
+        <v>7951</v>
+      </c>
+      <c r="J97">
+        <v>20550</v>
+      </c>
+      <c r="K97">
+        <v>91163</v>
+      </c>
+      <c r="L97">
+        <v>114369811</v>
+      </c>
+      <c r="M97">
+        <v>74098</v>
+      </c>
+      <c r="N97">
+        <v>86697</v>
+      </c>
+      <c r="O97">
+        <v>157310</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>114414693</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="6"/>
+        <v>48269</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="7"/>
+        <v>3387</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="8"/>
+        <v>10184</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="9"/>
+        <v>63809</v>
+      </c>
+      <c r="H98">
+        <v>114369811</v>
+      </c>
+      <c r="I98">
+        <v>3387</v>
+      </c>
+      <c r="J98">
+        <v>13571</v>
+      </c>
+      <c r="K98">
+        <v>67196</v>
+      </c>
+      <c r="L98">
+        <v>114414693</v>
+      </c>
+      <c r="M98">
+        <v>48269</v>
+      </c>
+      <c r="N98">
+        <v>58453</v>
+      </c>
+      <c r="O98">
+        <v>112078</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>114464301</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="6"/>
+        <v>53493</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="7"/>
+        <v>3885</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="8"/>
+        <v>11206</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="9"/>
+        <v>101762</v>
+      </c>
+      <c r="H99">
+        <v>114414693</v>
+      </c>
+      <c r="I99">
+        <v>3885</v>
+      </c>
+      <c r="J99">
+        <v>15091</v>
+      </c>
+      <c r="K99">
+        <v>105647</v>
+      </c>
+      <c r="L99">
+        <v>114464301</v>
+      </c>
+      <c r="M99">
+        <v>53493</v>
+      </c>
+      <c r="N99">
+        <v>64699</v>
+      </c>
+      <c r="O99">
+        <v>155255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="2">
+        <v>41682</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>114496246</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="6"/>
+        <v>37601</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="7"/>
+        <v>5656</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="8"/>
+        <v>7947</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="9"/>
+        <v>7012</v>
+      </c>
+      <c r="H100">
+        <v>114464301</v>
+      </c>
+      <c r="I100">
+        <v>5656</v>
+      </c>
+      <c r="J100">
+        <v>13603</v>
+      </c>
+      <c r="K100">
+        <v>12668</v>
+      </c>
+      <c r="L100">
+        <v>114496246</v>
+      </c>
+      <c r="M100">
+        <v>37601</v>
+      </c>
+      <c r="N100">
+        <v>45548</v>
+      </c>
+      <c r="O100">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="2">
+        <v>41683</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="5"/>
+        <v>114458102</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="7"/>
+        <v>38144</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="9"/>
+        <v>4877</v>
+      </c>
+      <c r="H101">
+        <v>114496246</v>
+      </c>
+      <c r="I101">
+        <v>38144</v>
+      </c>
+      <c r="J101">
+        <v>38144</v>
+      </c>
+      <c r="K101">
+        <v>43021</v>
+      </c>
+      <c r="L101">
+        <v>114458102</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="2">
+        <v>41684</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="5"/>
+        <v>114514951</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="6"/>
+        <v>60692</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="7"/>
+        <v>3843</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="8"/>
+        <v>12252</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="9"/>
+        <v>15065719</v>
+      </c>
+      <c r="H102">
+        <v>114458102</v>
+      </c>
+      <c r="I102">
+        <v>3843</v>
+      </c>
+      <c r="J102">
+        <v>16095</v>
+      </c>
+      <c r="K102">
+        <v>15069562</v>
+      </c>
+      <c r="L102">
+        <v>114514951</v>
+      </c>
+      <c r="M102">
+        <v>60692</v>
+      </c>
+      <c r="N102">
+        <v>72944</v>
+      </c>
+      <c r="O102">
+        <v>15126411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="2">
+        <v>41685</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="5"/>
+        <v>114620403</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="6"/>
+        <v>106574</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="7"/>
+        <v>1122</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="8"/>
+        <v>18425</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="9"/>
+        <v>15162480</v>
+      </c>
+      <c r="H103">
+        <v>114514951</v>
+      </c>
+      <c r="I103">
+        <v>1122</v>
+      </c>
+      <c r="J103">
+        <v>19547</v>
+      </c>
+      <c r="K103">
+        <v>15163602</v>
+      </c>
+      <c r="L103">
+        <v>114620403</v>
+      </c>
+      <c r="M103">
+        <v>106574</v>
+      </c>
+      <c r="N103">
+        <v>124999</v>
+      </c>
+      <c r="O103">
+        <v>15269054</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="2">
+        <v>41686</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="5"/>
+        <v>114645992</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="6"/>
+        <v>29437</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="7"/>
+        <v>3848</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="8"/>
+        <v>6322</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="9"/>
+        <v>33789</v>
+      </c>
+      <c r="H104">
+        <v>114620403</v>
+      </c>
+      <c r="I104">
+        <v>3848</v>
+      </c>
+      <c r="J104">
+        <v>10170</v>
+      </c>
+      <c r="K104">
+        <v>37637</v>
+      </c>
+      <c r="L104">
+        <v>114645992</v>
+      </c>
+      <c r="M104">
+        <v>29437</v>
+      </c>
+      <c r="N104">
+        <v>35759</v>
+      </c>
+      <c r="O104">
+        <v>63226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="2">
+        <v>41687</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="5"/>
+        <v>114752431</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="6"/>
+        <v>108965</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="7"/>
+        <v>2526</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="8"/>
+        <v>17810</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="9"/>
+        <v>8831</v>
+      </c>
+      <c r="H105">
+        <v>114645992</v>
+      </c>
+      <c r="I105">
+        <v>2526</v>
+      </c>
+      <c r="J105">
+        <v>20336</v>
+      </c>
+      <c r="K105">
+        <v>11357</v>
+      </c>
+      <c r="L105">
+        <v>114752431</v>
+      </c>
+      <c r="M105">
+        <v>108965</v>
+      </c>
+      <c r="N105">
+        <v>126775</v>
+      </c>
+      <c r="O105">
+        <v>117796</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="2">
+        <v>41688</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="5"/>
+        <v>114748415</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="7"/>
+        <v>4018</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="9"/>
+        <v>215611</v>
+      </c>
+      <c r="H106">
+        <v>114752431</v>
+      </c>
+      <c r="I106">
+        <v>4018</v>
+      </c>
+      <c r="J106">
+        <v>4018</v>
+      </c>
+      <c r="K106">
+        <v>219629</v>
+      </c>
+      <c r="L106">
+        <v>114748415</v>
+      </c>
+      <c r="M106">
+        <v>2</v>
+      </c>
+      <c r="N106">
+        <v>2</v>
+      </c>
+      <c r="O106">
+        <v>215613</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="2">
+        <v>41689</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="5"/>
+        <v>114819107</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="6"/>
+        <v>71089</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="7"/>
+        <v>397</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="8"/>
+        <v>13554</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="9"/>
+        <v>77178</v>
+      </c>
+      <c r="H107">
+        <v>114748415</v>
+      </c>
+      <c r="I107">
+        <v>397</v>
+      </c>
+      <c r="J107">
+        <v>13951</v>
+      </c>
+      <c r="K107">
+        <v>77575</v>
+      </c>
+      <c r="L107">
+        <v>114819107</v>
+      </c>
+      <c r="M107">
+        <v>71089</v>
+      </c>
+      <c r="N107">
+        <v>84643</v>
+      </c>
+      <c r="O107">
+        <v>148267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="2">
+        <v>41690</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="5"/>
+        <v>114974220</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="6"/>
+        <v>160040</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="7"/>
+        <v>4927</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="8"/>
+        <v>28434</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="9"/>
+        <v>166710</v>
+      </c>
+      <c r="H108">
+        <v>114819107</v>
+      </c>
+      <c r="I108">
+        <v>4927</v>
+      </c>
+      <c r="J108">
+        <v>33361</v>
+      </c>
+      <c r="K108">
+        <v>171637</v>
+      </c>
+      <c r="L108">
+        <v>114974220</v>
+      </c>
+      <c r="M108">
+        <v>160040</v>
+      </c>
+      <c r="N108">
+        <v>188474</v>
+      </c>
+      <c r="O108">
+        <v>326750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="2">
+        <v>41691</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="5"/>
+        <v>115024908</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="6"/>
+        <v>53984</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="7"/>
+        <v>3296</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="8"/>
+        <v>10980</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="9"/>
+        <v>72830</v>
+      </c>
+      <c r="H109">
+        <v>114974220</v>
+      </c>
+      <c r="I109">
+        <v>3296</v>
+      </c>
+      <c r="J109">
+        <v>14276</v>
+      </c>
+      <c r="K109">
+        <v>76126</v>
+      </c>
+      <c r="L109">
+        <v>115024908</v>
+      </c>
+      <c r="M109">
+        <v>53984</v>
+      </c>
+      <c r="N109">
+        <v>64964</v>
+      </c>
+      <c r="O109">
+        <v>126814</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="2">
+        <v>41692</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="5"/>
+        <v>115024908</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>115024908</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>115024908</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="2">
+        <v>41693</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="5"/>
+        <v>115024908</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>115024908</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>115024908</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="2">
+        <v>41694</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="5"/>
+        <v>115237216</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="6"/>
+        <v>253643</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="7"/>
+        <v>41335</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="8"/>
+        <v>56247</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="9"/>
+        <v>253883</v>
+      </c>
+      <c r="H112">
+        <v>115024908</v>
+      </c>
+      <c r="I112">
+        <v>41335</v>
+      </c>
+      <c r="J112">
+        <v>97582</v>
+      </c>
+      <c r="K112">
+        <v>295218</v>
+      </c>
+      <c r="L112">
+        <v>115237216</v>
+      </c>
+      <c r="M112">
+        <v>253643</v>
+      </c>
+      <c r="N112">
+        <v>309890</v>
+      </c>
+      <c r="O112">
+        <v>507526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="4">
+        <f>AVERAGE(C3:C112)</f>
+        <v>59568.436363636363</v>
+      </c>
+      <c r="D115" s="4">
+        <f t="shared" ref="D115:F115" si="10">AVERAGE(D3:D112)</f>
+        <v>14329.181818181818</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="10"/>
+        <v>11701.609090909091</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="10"/>
+        <v>345820.92727272725</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3">
+        <f>MIN(C3:C112)</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="3">
+        <f t="shared" ref="D116:F116" si="11">MIN(D3:D112)</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3">
+        <f>MAX(C3:C112)</f>
+        <v>253643</v>
+      </c>
+      <c r="D117" s="3">
+        <f t="shared" ref="D117:F117" si="12">MAX(D3:D112)</f>
+        <v>198176</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" si="12"/>
+        <v>56247</v>
+      </c>
+      <c r="F117" s="3">
+        <f t="shared" si="12"/>
+        <v>15162480</v>
       </c>
     </row>
   </sheetData>
